--- a/ig/main/StructureDefinition-EyeColor.xlsx
+++ b/ig/main/StructureDefinition-EyeColor.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/fr/example/StructureDefinition/EyeColor</t>
+    <t>http://interop.esante.gouv.fr/ig/fhir/example/StructureDefinition/EyeColor</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:18:20+00:00</t>
+    <t>2023-02-21T09:43:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -352,7 +352,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/fr/example/ValueSet/EyeColorVS</t>
+    <t>http://interop.esante.gouv.fr/ig/fhir/example/ValueSet/EyeColorVS</t>
   </si>
 </sst>
 </file>
@@ -689,7 +689,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="47.36328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.6328125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/ig/main/StructureDefinition-EyeColor.xlsx
+++ b/ig/main/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T09:43:54+00:00</t>
+    <t>2023-02-21T09:45:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-EyeColor.xlsx
+++ b/ig/main/StructureDefinition-EyeColor.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/ig/fhir/example/StructureDefinition/EyeColor</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/example/StructureDefinition/EyeColor</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T09:45:20+00:00</t>
+    <t>2023-02-23T14:52:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -352,7 +352,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/ig/fhir/example/ValueSet/EyeColorVS</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/example/ValueSet/EyeColorVS</t>
   </si>
 </sst>
 </file>
@@ -689,7 +689,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.6328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.5859375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/ig/main/StructureDefinition-EyeColor.xlsx
+++ b/ig/main/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T14:52:39+00:00</t>
+    <t>2023-02-23T15:30:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-EyeColor.xlsx
+++ b/ig/main/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T15:30:58+00:00</t>
+    <t>2023-02-23T15:32:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-EyeColor.xlsx
+++ b/ig/main/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T15:32:18+00:00</t>
+    <t>2023-03-17T16:29:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-EyeColor.xlsx
+++ b/ig/main/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T16:29:45+00:00</t>
+    <t>2023-03-19T15:31:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-EyeColor.xlsx
+++ b/ig/main/StructureDefinition-EyeColor.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:31:53+00:00</t>
+    <t>2023-03-25T16:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
